--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20257" windowHeight="8175"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -53,7 +53,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>位置</t>
+    <t>初始位置</t>
   </si>
   <si>
     <t>身高</t>
@@ -83,31 +83,22 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>米克尔</t>
   </si>
   <si>
-    <t>带有强力攻击技能</t>
-  </si>
-  <si>
-    <t>测试说明2</t>
-  </si>
-  <si>
-    <t>米克尔2</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-  </si>
-  <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-  </si>
-  <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>127000,51300,-155000</t>
+  </si>
+  <si>
+    <t>野猪</t>
+  </si>
+  <si>
+    <t>熊</t>
   </si>
 </sst>
 </file>
@@ -1105,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J9"/>
+  <dimension ref="C2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
@@ -1119,7 +1110,7 @@
     <col min="5" max="5" width="15.1238938053097" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6283185840708" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.7522123893805" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87610619469027" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.9203539823009" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.50442477876106" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.75221238938053" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1204,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -1220,17 +1211,15 @@
       <c r="D6" s="1">
         <v>5001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>178</v>
@@ -1239,88 +1228,48 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:10">
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1">
-        <v>5001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>5002</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
       <c r="I7" s="1">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.4" spans="2:10">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="8" s="1" customFormat="1" spans="3:10">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1">
-        <v>5001</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>5003</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="1">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J8" s="1">
         <v>68</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="12.4" spans="2:10">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5001</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>278</v>
-      </c>
-      <c r="J9" s="1">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="22927" windowHeight="8017"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>测试说明</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -56,12 +50,27 @@
     <t>初始位置</t>
   </si>
   <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>视野距离</t>
+  </si>
+  <si>
     <t>身高</t>
   </si>
   <si>
     <t>体重</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -71,6 +80,15 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
     <t>Height</t>
   </si>
   <si>
@@ -86,7 +104,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>米克尔</t>
+    <t>Character_HumanMale</t>
   </si>
   <si>
     <t>主角</t>
@@ -95,10 +113,58 @@
     <t>127000,51300,-155000</t>
   </si>
   <si>
+    <t>TrainingDummy</t>
+  </si>
+  <si>
+    <t>训练假人</t>
+  </si>
+  <si>
+    <t>56000,30000,-138000</t>
+  </si>
+  <si>
+    <t>58740,29090,-148001</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
     <t>野猪</t>
   </si>
   <si>
+    <t>21600,26800,-58702</t>
+  </si>
+  <si>
+    <t>56000,25180,-23633</t>
+  </si>
+  <si>
+    <t>36310,25180,-23634</t>
+  </si>
+  <si>
+    <t>67170,25180,-40495</t>
+  </si>
+  <si>
+    <t>59600,25800,-87866</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
     <t>熊</t>
+  </si>
+  <si>
+    <t>58740,28100,-141407</t>
+  </si>
+  <si>
+    <t>58740,28100,-130408</t>
+  </si>
+  <si>
+    <t>67480,28850,-130409</t>
+  </si>
+  <si>
+    <t>67480,27510,-34791</t>
+  </si>
+  <si>
+    <t>67480,25900,-93811</t>
   </si>
 </sst>
 </file>
@@ -1096,180 +1162,640 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J8"/>
+  <dimension ref="C1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6283185840708" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1238938053097" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6283185840708" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7522123893805" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.9203539823009" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.50442477876106" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75221238938053" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="18.2566371681416" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5398230088496" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17.2654867256637" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="11" width="7.3716814159292" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.83185840707965" style="2" customWidth="1"/>
+    <col min="13" max="14" width="7.63716814159292" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10">
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="9:14">
+      <c r="I1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1005</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1007</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1008</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="6:14">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="3:14">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
+    <row r="5" spans="3:14">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:14">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>5001</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I6" s="1">
-        <v>178</v>
+        <v>6000</v>
       </c>
       <c r="J6" s="1">
-        <v>68</v>
+        <v>6800</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1780</v>
+      </c>
+      <c r="M6" s="1">
+        <v>68000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    <row r="7" s="1" customFormat="1" spans="3:14">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1">
         <v>5002</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>30</v>
+        <v>3000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>500</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:10">
+    <row r="8" s="1" customFormat="1" spans="3:14">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1">
-        <v>5003</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>5002</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>68</v>
+        <v>3000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>500</v>
+      </c>
+      <c r="M8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:14">
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>500</v>
+      </c>
+      <c r="M9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:14">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>500</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:14">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>500</v>
+      </c>
+      <c r="M11" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:14">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>500</v>
+      </c>
+      <c r="M12" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:14">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>500</v>
+      </c>
+      <c r="M13" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:14">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>500</v>
+      </c>
+      <c r="M14" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:14">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>500</v>
+      </c>
+      <c r="M15" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:14">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>500</v>
+      </c>
+      <c r="M16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:14">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>500</v>
+      </c>
+      <c r="M17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:14">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>500</v>
+      </c>
+      <c r="M18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22927" windowHeight="8017"/>
+    <workbookView windowWidth="25725" windowHeight="8017"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -1165,7 +1165,7 @@
   <dimension ref="C1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,7 +1175,8 @@
     <col min="3" max="4" width="12.6283185840708" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.2566371681416" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5398230088496" style="2" customWidth="1"/>
-    <col min="7" max="8" width="17.2654867256637" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.2654867256637" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.2389380530973" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="11" width="7.3716814159292" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.83185840707965" style="2" customWidth="1"/>
@@ -1210,23 +1211,26 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:14">
@@ -1343,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
+    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1359,6 +1363,10 @@
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H6" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6)</f>
+        <v>1000,6000,1005,6800,1006,100000,1007,1780,1008,68000,1008,0</v>
+      </c>
       <c r="I6" s="1">
         <v>6000</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>6800</v>
       </c>
       <c r="K6" s="1">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="1">
         <v>1780</v>
@@ -1378,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
+    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1394,6 +1402,10 @@
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7)</f>
+        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:14">
+    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1429,6 +1441,10 @@
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
@@ -1448,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:14">
+    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1464,6 +1480,10 @@
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I9" s="1">
         <v>4000</v>
       </c>
@@ -1471,7 +1491,7 @@
         <v>3000</v>
       </c>
       <c r="K9" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L9" s="1">
         <v>500</v>
@@ -1483,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:14">
+    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1499,6 +1519,10 @@
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I10" s="1">
         <v>4000</v>
       </c>
@@ -1506,7 +1530,7 @@
         <v>3000</v>
       </c>
       <c r="K10" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L10" s="1">
         <v>500</v>
@@ -1518,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:14">
+    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1534,6 +1558,10 @@
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I11" s="1">
         <v>4000</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>3000</v>
       </c>
       <c r="K11" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L11" s="1">
         <v>500</v>
@@ -1553,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:14">
+    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1569,6 +1597,10 @@
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I12" s="1">
         <v>4000</v>
       </c>
@@ -1576,7 +1608,7 @@
         <v>3000</v>
       </c>
       <c r="K12" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L12" s="1">
         <v>500</v>
@@ -1588,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:14">
+    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1604,6 +1636,10 @@
       <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I13" s="1">
         <v>4000</v>
       </c>
@@ -1611,7 +1647,7 @@
         <v>3000</v>
       </c>
       <c r="K13" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L13" s="1">
         <v>500</v>
@@ -1623,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:14">
+    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1639,6 +1675,10 @@
       <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I14" s="1">
         <v>4000</v>
       </c>
@@ -1646,7 +1686,7 @@
         <v>3000</v>
       </c>
       <c r="K14" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L14" s="1">
         <v>500</v>
@@ -1658,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:14">
+    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1674,6 +1714,10 @@
       <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I15" s="1">
         <v>4000</v>
       </c>
@@ -1681,7 +1725,7 @@
         <v>3000</v>
       </c>
       <c r="K15" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L15" s="1">
         <v>500</v>
@@ -1693,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:14">
+    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1709,6 +1753,10 @@
       <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I16" s="1">
         <v>4000</v>
       </c>
@@ -1716,7 +1764,7 @@
         <v>3000</v>
       </c>
       <c r="K16" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L16" s="1">
         <v>500</v>
@@ -1728,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:14">
+    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1744,6 +1792,10 @@
       <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I17" s="1">
         <v>4000</v>
       </c>
@@ -1751,7 +1803,7 @@
         <v>3000</v>
       </c>
       <c r="K17" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L17" s="1">
         <v>500</v>
@@ -1763,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:14">
+    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -1779,6 +1831,10 @@
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+      </c>
       <c r="I18" s="1">
         <v>4000</v>
       </c>
@@ -1786,7 +1842,7 @@
         <v>3000</v>
       </c>
       <c r="K18" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="L18" s="1">
         <v>500</v>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -1165,7 +1165,7 @@
   <dimension ref="C1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1201,7 +1201,7 @@
         <v>1008</v>
       </c>
       <c r="N1" s="1">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="6:14">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="H6" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6)</f>
-        <v>1000,6000,1005,6800,1006,100000,1007,1780,1008,68000,1008,0</v>
+        <v>1000,6000,1005,6800,1006,100000,1007,1780,1008,68000,1009,0</v>
       </c>
       <c r="I6" s="1">
         <v>6000</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="7" s="1" customFormat="1" spans="3:14">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7)</f>
-        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1008,1</v>
+        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>30000</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="8" s="1" customFormat="1" spans="3:14">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1008,1</v>
+        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>30000</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="9" s="1" customFormat="1" spans="3:14">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I9" s="1">
         <v>4000</v>
@@ -1500,10 +1500,10 @@
         <v>30000</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="10" s="1" customFormat="1" spans="3:14">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I10" s="1">
         <v>4000</v>
@@ -1539,10 +1539,10 @@
         <v>30000</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="11" s="1" customFormat="1" spans="3:14">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I11" s="1">
         <v>4000</v>
@@ -1578,10 +1578,10 @@
         <v>30000</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="12" s="1" customFormat="1" spans="3:14">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I12" s="1">
         <v>4000</v>
@@ -1617,10 +1617,10 @@
         <v>30000</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="13" s="1" customFormat="1" spans="3:14">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I13" s="1">
         <v>4000</v>
@@ -1656,10 +1656,10 @@
         <v>30000</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="14" s="1" customFormat="1" spans="3:14">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I14" s="1">
         <v>4000</v>
@@ -1695,10 +1695,10 @@
         <v>30000</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="15" s="1" customFormat="1" spans="3:14">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I15" s="1">
         <v>4000</v>
@@ -1734,10 +1734,10 @@
         <v>30000</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="16" s="1" customFormat="1" spans="3:14">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I16" s="1">
         <v>4000</v>
@@ -1773,10 +1773,10 @@
         <v>30000</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="17" s="1" customFormat="1" spans="3:14">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I17" s="1">
         <v>4000</v>
@@ -1812,10 +1812,10 @@
         <v>30000</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="18" s="1" customFormat="1" spans="3:14">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1008,1</v>
+        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I18" s="1">
         <v>4000</v>
@@ -1851,7 +1851,7 @@
         <v>30000</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -1165,7 +1165,7 @@
   <dimension ref="C1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,13 +1365,13 @@
       </c>
       <c r="H6" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6)</f>
-        <v>1000,6000,1005,6800,1006,100000,1007,1780,1008,68000,1009,0</v>
+        <v>1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0</v>
       </c>
       <c r="I6" s="1">
         <v>6000</v>
       </c>
       <c r="J6" s="1">
-        <v>6800</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1">
         <v>100000</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
+    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1404,13 +1404,13 @@
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7)</f>
-        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1009,3</v>
+        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:14">
+    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1443,13 +1443,13 @@
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,0,1005,3000,1006,0,1007,500,1008,30000,1009,3</v>
+        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1482,16 +1482,16 @@
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I9" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J9" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K9" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L9" s="1">
         <v>500</v>
@@ -1521,16 +1521,16 @@
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I10" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J10" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K10" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L10" s="1">
         <v>500</v>
@@ -1560,16 +1560,16 @@
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I11" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K11" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L11" s="1">
         <v>500</v>
@@ -1599,16 +1599,16 @@
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I12" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K12" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L12" s="1">
         <v>500</v>
@@ -1638,16 +1638,16 @@
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I13" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J13" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K13" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L13" s="1">
         <v>500</v>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I14" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K14" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L14" s="1">
         <v>500</v>
@@ -1716,16 +1716,16 @@
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I15" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K15" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L15" s="1">
         <v>500</v>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I16" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J16" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K16" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L16" s="1">
         <v>500</v>
@@ -1794,16 +1794,16 @@
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I17" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L17" s="1">
         <v>500</v>
@@ -1833,16 +1833,16 @@
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,4000,1005,3000,1006,40000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
       </c>
       <c r="I18" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K18" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L18" s="1">
         <v>500</v>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25725" windowHeight="8017"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -110,7 +97,7 @@
     <t>主角</t>
   </si>
   <si>
-    <t>127000,51300,-155000</t>
+    <t>56000,29000,-136000</t>
   </si>
   <si>
     <t>TrainingDummy</t>
@@ -170,12 +157,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -206,6 +193,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,6 +239,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -222,29 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -254,45 +323,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -301,50 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,19 +352,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,163 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,25 +547,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +585,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,171 +643,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -817,52 +804,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1165,7 +1152,7 @@
   <dimension ref="C1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1464,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:14">
+    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1503,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:14">
+    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1542,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:14">
+    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:14">
+    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1620,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:14">
+    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1659,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:14">
+    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1698,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:14">
+    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1737,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:14">
+    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1776,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:14">
+    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1815,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:14">
+    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:14">
       <c r="C18" s="1">
         <v>1013</v>
       </c>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -644,7 +644,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -790,6 +790,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -802,7 +803,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -852,6 +853,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>AI</t>
+  </si>
+  <si>
+    <t>MaxHPBase</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
   <si>
     <t>Name</t>
@@ -159,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -194,7 +200,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +259,28 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -224,13 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -239,57 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +312,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -313,29 +342,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -352,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,26 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,28 +579,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +611,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +655,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +667,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1151,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:N18"/>
+  <dimension ref="C1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1165,15 +1171,17 @@
     <col min="5" max="5" width="18.2566371681416" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5398230088496" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.2654867256637" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.2389380530973" style="2" customWidth="1"/>
+    <col min="8" max="8" width="66.7079646017699" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="11" width="7.3716814159292" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.83185840707965" style="2" customWidth="1"/>
     <col min="13" max="14" width="7.63716814159292" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.7522123893805" customWidth="1"/>
+    <col min="16" max="16" width="7.44247787610619" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:14">
+    <row r="1" spans="9:16">
       <c r="I1" s="2">
         <v>1000</v>
       </c>
@@ -1192,8 +1200,14 @@
       <c r="N1" s="1">
         <v>1009</v>
       </c>
+      <c r="O1" s="1">
+        <v>10021</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="2" spans="6:14">
+    <row r="2" spans="6:16">
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,8 +1235,14 @@
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:16">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1259,8 +1279,14 @@
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:16">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1268,75 +1294,87 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:16">
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="6" s="1" customFormat="1" spans="3:16">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1344,17 +1382,17 @@
         <v>5001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6)</f>
-        <v>1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6,O$1,O6,P$1,P6)</f>
+        <v>1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000</v>
       </c>
       <c r="I6" s="1">
         <v>6000</v>
@@ -1374,8 +1412,14 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="7" s="1" customFormat="1" spans="3:16">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1383,17 +1427,17 @@
         <v>5002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7)</f>
-        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3</v>
+        <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7,O$1,O7,P$1,P7)</f>
+        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1413,8 +1457,14 @@
       <c r="N7" s="1">
         <v>3</v>
       </c>
+      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="8" s="1" customFormat="1" spans="3:16">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1422,17 +1472,17 @@
         <v>5002</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3</v>
+        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1452,8 +1502,14 @@
       <c r="N8" s="1">
         <v>3</v>
       </c>
+      <c r="O8" s="1">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="9" s="1" customFormat="1" spans="3:16">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1461,17 +1517,17 @@
         <v>5002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I9" s="1">
         <v>2000</v>
@@ -1491,8 +1547,14 @@
       <c r="N9" s="1">
         <v>3</v>
       </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="10" s="1" customFormat="1" spans="3:16">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1500,17 +1562,17 @@
         <v>5002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I10" s="1">
         <v>2000</v>
@@ -1530,8 +1592,14 @@
       <c r="N10" s="1">
         <v>3</v>
       </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="11" s="1" customFormat="1" spans="3:16">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1539,17 +1607,17 @@
         <v>5002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I11" s="1">
         <v>2000</v>
@@ -1569,8 +1637,14 @@
       <c r="N11" s="1">
         <v>3</v>
       </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="12" s="1" customFormat="1" spans="3:16">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1578,17 +1652,17 @@
         <v>5002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I12" s="1">
         <v>2000</v>
@@ -1608,8 +1682,14 @@
       <c r="N12" s="1">
         <v>3</v>
       </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="13" s="1" customFormat="1" spans="3:16">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1617,17 +1697,17 @@
         <v>5002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I13" s="1">
         <v>2000</v>
@@ -1647,8 +1727,14 @@
       <c r="N13" s="1">
         <v>3</v>
       </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="14" s="1" customFormat="1" spans="3:16">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1656,17 +1742,17 @@
         <v>5002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I14" s="1">
         <v>2000</v>
@@ -1686,8 +1772,14 @@
       <c r="N14" s="1">
         <v>3</v>
       </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="15" s="1" customFormat="1" spans="3:16">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1695,17 +1787,17 @@
         <v>5002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I15" s="1">
         <v>2000</v>
@@ -1725,8 +1817,14 @@
       <c r="N15" s="1">
         <v>3</v>
       </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="16" s="1" customFormat="1" spans="3:16">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1734,17 +1832,17 @@
         <v>5002</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I16" s="1">
         <v>2000</v>
@@ -1764,8 +1862,14 @@
       <c r="N16" s="1">
         <v>3</v>
       </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="17" s="1" customFormat="1" spans="3:16">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1773,17 +1877,17 @@
         <v>5002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I17" s="1">
         <v>2000</v>
@@ -1803,8 +1907,14 @@
       <c r="N17" s="1">
         <v>3</v>
       </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:14">
+    <row r="18" s="1" customFormat="1" spans="3:16">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -1812,17 +1922,17 @@
         <v>5002</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3</v>
+        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
       </c>
       <c r="I18" s="1">
         <v>2000</v>
@@ -1841,6 +1951,12 @@
       </c>
       <c r="N18" s="1">
         <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -34,12 +34,18 @@
     <t>描述</t>
   </si>
   <si>
-    <t>初始位置</t>
-  </si>
-  <si>
     <t>KV</t>
   </si>
   <si>
+    <t>出生X坐标</t>
+  </si>
+  <si>
+    <t>出生Y坐标</t>
+  </si>
+  <si>
+    <t>出生Z坐标</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
@@ -70,7 +76,13 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Position</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>Speed</t>
@@ -103,61 +115,22 @@
     <t>主角</t>
   </si>
   <si>
-    <t>56000,29000,-136000</t>
-  </si>
-  <si>
     <t>TrainingDummy</t>
   </si>
   <si>
     <t>训练假人</t>
   </si>
   <si>
-    <t>56000,30000,-138000</t>
-  </si>
-  <si>
-    <t>58740,29090,-148001</t>
-  </si>
-  <si>
     <t>Boar</t>
   </si>
   <si>
     <t>野猪</t>
   </si>
   <si>
-    <t>21600,26800,-58702</t>
-  </si>
-  <si>
-    <t>56000,25180,-23633</t>
-  </si>
-  <si>
-    <t>36310,25180,-23634</t>
-  </si>
-  <si>
-    <t>67170,25180,-40495</t>
-  </si>
-  <si>
-    <t>59600,25800,-87866</t>
-  </si>
-  <si>
     <t>Bear</t>
   </si>
   <si>
     <t>熊</t>
-  </si>
-  <si>
-    <t>58740,28100,-141407</t>
-  </si>
-  <si>
-    <t>58740,28100,-130408</t>
-  </si>
-  <si>
-    <t>67480,28850,-130409</t>
-  </si>
-  <si>
-    <t>67480,27510,-34791</t>
-  </si>
-  <si>
-    <t>67480,25900,-93811</t>
   </si>
 </sst>
 </file>
@@ -798,15 +771,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1157,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P18"/>
+  <dimension ref="C1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,44 +1149,55 @@
     <col min="3" max="4" width="12.6283185840708" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.2566371681416" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5398230088496" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.2654867256637" style="2" customWidth="1"/>
-    <col min="8" max="8" width="66.7079646017699" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="7.3716814159292" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.83185840707965" style="2" customWidth="1"/>
-    <col min="13" max="14" width="7.63716814159292" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.7522123893805" customWidth="1"/>
-    <col min="16" max="16" width="7.44247787610619" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="91.3362831858407" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6814159292035" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.9557522123894" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.63716814159292" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="13" width="7.3716814159292" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.83185840707965" style="2" customWidth="1"/>
+    <col min="15" max="16" width="7.63716814159292" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.7522123893805" customWidth="1"/>
+    <col min="18" max="18" width="7.44247787610619" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:16">
-      <c r="I1" s="2">
+    <row r="1" spans="8:18">
+      <c r="H1" s="3">
+        <v>1010</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1011</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1012</v>
+      </c>
+      <c r="K1" s="3">
         <v>1000</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="6">
         <v>1005</v>
       </c>
-      <c r="K1" s="2">
+      <c r="M1" s="3">
         <v>1006</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="6">
         <v>1007</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="6">
         <v>1008</v>
       </c>
-      <c r="N1" s="1">
+      <c r="P1" s="6">
         <v>1009</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="6">
         <v>10021</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="6:16">
+    <row r="2" spans="6:18">
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
@@ -1241,140 +1231,164 @@
       <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="3:16">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:18">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="3:16">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:18">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="3:16">
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
+    <row r="5" spans="3:18">
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:16">
+    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1382,44 +1396,50 @@
         <v>5001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6,O$1,O6,P$1,P6)</f>
-        <v>1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,,H$1,H6,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6,O$1,O6,P$1,P6,Q$1,Q6,R$1,R6)</f>
+        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>56000</v>
       </c>
       <c r="I6" s="1">
+        <v>29000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-136000</v>
+      </c>
+      <c r="K6" s="1">
         <v>6000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>500</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>100000</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>1780</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>68000</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>1000</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:16">
+    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1427,23 +1447,23 @@
         <v>5002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7,O$1,O7,P$1,P7)</f>
-        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ref="G7:G18" si="0">_xlfn.TEXTJOIN(",",TRUE,,H$1,H7,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7,O$1,O7,P$1,P7,Q$1,Q7,R$1,R7)</f>
+        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>56000</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J7" s="1">
-        <v>500</v>
+        <v>-138000</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1452,19 +1472,25 @@
         <v>500</v>
       </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>500</v>
+      </c>
+      <c r="O7" s="1">
         <v>30000</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>3</v>
       </c>
-      <c r="O7" s="1">
-        <v>100</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
+        <v>100</v>
+      </c>
+      <c r="R7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:16">
+    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1472,23 +1498,23 @@
         <v>5002</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58740</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>29090</v>
       </c>
       <c r="J8" s="1">
-        <v>500</v>
+        <v>-148001</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1497,19 +1523,25 @@
         <v>500</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>500</v>
+      </c>
+      <c r="O8" s="1">
         <v>30000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="1">
-        <v>100</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
+        <v>100</v>
+      </c>
+      <c r="R8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:16">
+    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1517,44 +1549,50 @@
         <v>5002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21600</v>
       </c>
       <c r="I9" s="1">
+        <v>26800</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-58702</v>
+      </c>
+      <c r="K9" s="1">
         <v>2000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>500</v>
-      </c>
-      <c r="K9" s="1">
-        <v>10000</v>
       </c>
       <c r="L9" s="1">
         <v>500</v>
       </c>
       <c r="M9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>500</v>
+      </c>
+      <c r="O9" s="1">
         <v>30000</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>3</v>
       </c>
-      <c r="O9" s="1">
-        <v>100</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
+      <c r="R9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:16">
+    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1562,44 +1600,50 @@
         <v>5002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="str">
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>56000</v>
       </c>
       <c r="I10" s="1">
+        <v>25180</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-23633</v>
+      </c>
+      <c r="K10" s="1">
         <v>2000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>500</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10000</v>
       </c>
       <c r="L10" s="1">
         <v>500</v>
       </c>
       <c r="M10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>500</v>
+      </c>
+      <c r="O10" s="1">
         <v>30000</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>3</v>
       </c>
-      <c r="O10" s="1">
-        <v>100</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
+      <c r="R10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:16">
+    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1607,44 +1651,50 @@
         <v>5002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1" t="str">
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36310</v>
       </c>
       <c r="I11" s="1">
+        <v>25180</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-23634</v>
+      </c>
+      <c r="K11" s="1">
         <v>2000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>500</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10000</v>
       </c>
       <c r="L11" s="1">
         <v>500</v>
       </c>
       <c r="M11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>500</v>
+      </c>
+      <c r="O11" s="1">
         <v>30000</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>3</v>
       </c>
-      <c r="O11" s="1">
-        <v>100</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
+        <v>100</v>
+      </c>
+      <c r="R11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:16">
+    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1652,44 +1702,50 @@
         <v>5002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="str">
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>67170</v>
       </c>
       <c r="I12" s="1">
+        <v>25180</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-40495</v>
+      </c>
+      <c r="K12" s="1">
         <v>2000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>500</v>
-      </c>
-      <c r="K12" s="1">
-        <v>10000</v>
       </c>
       <c r="L12" s="1">
         <v>500</v>
       </c>
       <c r="M12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>500</v>
+      </c>
+      <c r="O12" s="1">
         <v>30000</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>3</v>
       </c>
-      <c r="O12" s="1">
-        <v>100</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
+        <v>100</v>
+      </c>
+      <c r="R12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:16">
+    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1697,44 +1753,50 @@
         <v>5002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="str">
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>59600</v>
       </c>
       <c r="I13" s="1">
+        <v>25800</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-87866</v>
+      </c>
+      <c r="K13" s="1">
         <v>2000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>500</v>
-      </c>
-      <c r="K13" s="1">
-        <v>10000</v>
       </c>
       <c r="L13" s="1">
         <v>500</v>
       </c>
       <c r="M13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="1">
+        <v>500</v>
+      </c>
+      <c r="O13" s="1">
         <v>30000</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>3</v>
       </c>
-      <c r="O13" s="1">
-        <v>100</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
+        <v>100</v>
+      </c>
+      <c r="R13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:16">
+    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1742,44 +1804,50 @@
         <v>5002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>58740</v>
       </c>
       <c r="I14" s="1">
+        <v>28100</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-141407</v>
+      </c>
+      <c r="K14" s="1">
         <v>2000</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>2000</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>10000</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>500</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>30000</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>3</v>
       </c>
-      <c r="O14" s="1">
-        <v>100</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
+        <v>100</v>
+      </c>
+      <c r="R14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:16">
+    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1787,44 +1855,50 @@
         <v>5002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>58740</v>
       </c>
       <c r="I15" s="1">
+        <v>28100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-130408</v>
+      </c>
+      <c r="K15" s="1">
         <v>2000</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>2000</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>10000</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>500</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>30000</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>3</v>
       </c>
-      <c r="O15" s="1">
-        <v>100</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
+        <v>100</v>
+      </c>
+      <c r="R15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:16">
+    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1832,44 +1906,50 @@
         <v>5002</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>67480</v>
       </c>
       <c r="I16" s="1">
+        <v>28850</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-130409</v>
+      </c>
+      <c r="K16" s="1">
         <v>2000</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>2000</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>10000</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>500</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>30000</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>3</v>
       </c>
-      <c r="O16" s="1">
-        <v>100</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
+        <v>100</v>
+      </c>
+      <c r="R16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:16">
+    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1877,44 +1957,50 @@
         <v>5002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>67480</v>
       </c>
       <c r="I17" s="1">
+        <v>27510</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-34791</v>
+      </c>
+      <c r="K17" s="1">
         <v>2000</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>2000</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>10000</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>500</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>30000</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>3</v>
       </c>
-      <c r="O17" s="1">
-        <v>100</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
+        <v>100</v>
+      </c>
+      <c r="R17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:16">
+    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:18">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -1922,40 +2008,46 @@
         <v>5002</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>67480</v>
       </c>
       <c r="I18" s="1">
+        <v>25900</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-93811</v>
+      </c>
+      <c r="K18" s="1">
         <v>2000</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>2000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>10000</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>500</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
         <v>30000</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>3</v>
       </c>
-      <c r="O18" s="1">
-        <v>100</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+      <c r="R18" s="1">
         <v>100</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -109,7 +109,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Character_HumanMale</t>
+    <t>Mage</t>
   </si>
   <si>
     <t>主角</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -165,20 +165,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,15 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +203,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -230,91 +315,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -331,181 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +564,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,33 +602,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -625,148 +625,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="C1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>MP</t>
   </si>
   <si>
     <t>Name</t>
@@ -138,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -167,6 +170,126 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,132 +312,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -331,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,36 +525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,22 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,17 +576,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,145 +631,145 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1136,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:R18"/>
+  <dimension ref="C1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1149,7 +1152,7 @@
     <col min="3" max="4" width="12.6283185840708" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.2566371681416" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5398230088496" style="2" customWidth="1"/>
-    <col min="7" max="7" width="91.3362831858407" style="2" customWidth="1"/>
+    <col min="7" max="7" width="103.619469026549" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.6814159292035" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.9557522123894" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.63716814159292" style="2" customWidth="1"/>
@@ -1159,10 +1162,11 @@
     <col min="15" max="16" width="7.63716814159292" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.7522123893805" customWidth="1"/>
     <col min="18" max="18" width="7.44247787610619" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="7.44247787610619" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:18">
+    <row r="1" spans="8:19">
       <c r="H1" s="3">
         <v>1010</v>
       </c>
@@ -1196,8 +1200,11 @@
       <c r="R1" s="6">
         <v>1001</v>
       </c>
+      <c r="S1" s="6">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="2" spans="6:18">
+    <row r="2" spans="6:19">
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1244,11 @@
       <c r="R2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="3:18">
+    <row r="3" spans="3:19">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1287,8 +1297,11 @@
       <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="3:18">
+    <row r="4" spans="3:19">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1296,37 +1309,37 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>15</v>
@@ -1337,58 +1350,64 @@
       <c r="R4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="3:18">
+    <row r="5" spans="3:19">
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="6" s="1" customFormat="1" spans="3:19">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1396,14 +1415,14 @@
         <v>5001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,,H$1,H6,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6,O$1,O6,P$1,P6,Q$1,Q6,R$1,R6)</f>
-        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,,H$1,H6,I$1,I6,J$1,J6,K$1,K6,L$1,L6,M$1,M6,N$1,N6,O$1,O6,P$1,P6,Q$1,Q6,R$1,R6,S$1,S6)</f>
+        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,1003,1000</v>
       </c>
       <c r="H6" s="1">
         <v>56000</v>
@@ -1438,8 +1457,11 @@
       <c r="R6" s="1">
         <v>1000</v>
       </c>
+      <c r="S6" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="7" s="1" customFormat="1" spans="3:19">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1447,14 +1469,14 @@
         <v>5002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G18" si="0">_xlfn.TEXTJOIN(",",TRUE,,H$1,H7,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7,O$1,O7,P$1,P7,Q$1,Q7,R$1,R7)</f>
-        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <f t="shared" ref="G7:G18" si="0">_xlfn.TEXTJOIN(",",TRUE,,H$1,H7,I$1,I7,J$1,J7,K$1,K7,L$1,L7,M$1,M7,N$1,N7,O$1,O7,P$1,P7,Q$1,Q7,R$1,R7,S$1,S7)</f>
+        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H7" s="1">
         <v>56000</v>
@@ -1489,8 +1511,11 @@
       <c r="R7" s="1">
         <v>100</v>
       </c>
+      <c r="S7" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="8" s="1" customFormat="1" spans="3:19">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1498,14 +1523,14 @@
         <v>5002</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H8" s="1">
         <v>58740</v>
@@ -1540,8 +1565,11 @@
       <c r="R8" s="1">
         <v>100</v>
       </c>
+      <c r="S8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="9" s="1" customFormat="1" spans="3:19">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1549,14 +1577,14 @@
         <v>5002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H9" s="1">
         <v>21600</v>
@@ -1591,8 +1619,11 @@
       <c r="R9" s="1">
         <v>100</v>
       </c>
+      <c r="S9" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="10" s="1" customFormat="1" spans="3:19">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1600,14 +1631,14 @@
         <v>5002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H10" s="1">
         <v>56000</v>
@@ -1642,8 +1673,11 @@
       <c r="R10" s="1">
         <v>100</v>
       </c>
+      <c r="S10" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="11" s="1" customFormat="1" spans="3:19">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1651,14 +1685,14 @@
         <v>5002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H11" s="1">
         <v>36310</v>
@@ -1693,8 +1727,11 @@
       <c r="R11" s="1">
         <v>100</v>
       </c>
+      <c r="S11" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="12" s="1" customFormat="1" spans="3:19">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1702,14 +1739,14 @@
         <v>5002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H12" s="1">
         <v>67170</v>
@@ -1744,8 +1781,11 @@
       <c r="R12" s="1">
         <v>100</v>
       </c>
+      <c r="S12" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="13" s="1" customFormat="1" spans="3:19">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1753,14 +1793,14 @@
         <v>5002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H13" s="1">
         <v>59600</v>
@@ -1795,8 +1835,11 @@
       <c r="R13" s="1">
         <v>100</v>
       </c>
+      <c r="S13" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="14" s="1" customFormat="1" spans="3:19">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1804,14 +1847,14 @@
         <v>5002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H14" s="1">
         <v>58740</v>
@@ -1846,8 +1889,11 @@
       <c r="R14" s="1">
         <v>100</v>
       </c>
+      <c r="S14" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="15" s="1" customFormat="1" spans="3:19">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1855,14 +1901,14 @@
         <v>5002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H15" s="1">
         <v>58740</v>
@@ -1897,8 +1943,11 @@
       <c r="R15" s="1">
         <v>100</v>
       </c>
+      <c r="S15" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="16" s="1" customFormat="1" spans="3:19">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1906,14 +1955,14 @@
         <v>5002</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H16" s="1">
         <v>67480</v>
@@ -1948,8 +1997,11 @@
       <c r="R16" s="1">
         <v>100</v>
       </c>
+      <c r="S16" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="17" s="1" customFormat="1" spans="3:19">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1957,14 +2009,14 @@
         <v>5002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H17" s="1">
         <v>67480</v>
@@ -1999,8 +2051,11 @@
       <c r="R17" s="1">
         <v>100</v>
       </c>
+      <c r="S17" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12.4" spans="3:18">
+    <row r="18" s="1" customFormat="1" spans="3:19">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -2008,14 +2063,14 @@
         <v>5002</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100</v>
+        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
       </c>
       <c r="H18" s="1">
         <v>67480</v>
@@ -2048,6 +2103,9 @@
         <v>100</v>
       </c>
       <c r="R18" s="1">
+        <v>100</v>
+      </c>
+      <c r="S18" s="1">
         <v>100</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/UnitConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -170,13 +170,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +204,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,14 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -236,88 +306,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -334,13 +334,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,169 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +538,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -567,49 +591,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -625,151 +616,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1141,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="C1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1161,8 +1161,7 @@
     <col min="14" max="14" width="8.83185840707965" style="2" customWidth="1"/>
     <col min="15" max="16" width="7.63716814159292" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.7522123893805" customWidth="1"/>
-    <col min="18" max="18" width="7.44247787610619" customWidth="1"/>
-    <col min="19" max="19" width="7.44247787610619" customWidth="1"/>
+    <col min="18" max="19" width="7.44247787610619" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1407,12 +1406,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:19">
+    <row r="6" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -1466,7 +1465,7 @@
         <v>1002</v>
       </c>
       <c r="D7" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -1520,7 +1519,7 @@
         <v>1003</v>
       </c>
       <c r="D8" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
@@ -1574,7 +1573,7 @@
         <v>1004</v>
       </c>
       <c r="D9" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
@@ -1628,7 +1627,7 @@
         <v>1005</v>
       </c>
       <c r="D10" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
@@ -1682,7 +1681,7 @@
         <v>1006</v>
       </c>
       <c r="D11" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -1736,7 +1735,7 @@
         <v>1007</v>
       </c>
       <c r="D12" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
@@ -1790,7 +1789,7 @@
         <v>1008</v>
       </c>
       <c r="D13" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -1844,7 +1843,7 @@
         <v>1009</v>
       </c>
       <c r="D14" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -1898,7 +1897,7 @@
         <v>1010</v>
       </c>
       <c r="D15" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -1952,7 +1951,7 @@
         <v>1011</v>
       </c>
       <c r="D16" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
@@ -2006,7 +2005,7 @@
         <v>1012</v>
       </c>
       <c r="D17" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
@@ -2060,7 +2059,7 @@
         <v>1013</v>
       </c>
       <c r="D18" s="1">
-        <v>5002</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
